--- a/EDT_EAH/bin/Release/EDT_EAH.xlsx
+++ b/EDT_EAH/bin/Release/EDT_EAH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Perso\edt-eah\EDT_EAH_Test\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB52F0-966C-46D7-A693-1AEE503AE039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9C2FA-E4EB-406D-A483-ECFFC25CE82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{AB4BD8E3-11D0-4585-9DB2-1CC211EA48BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{AB4BD8E3-11D0-4585-9DB2-1CC211EA48BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="122">
   <si>
     <t>Code</t>
   </si>
@@ -49,28 +49,10 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>Matière1</t>
-  </si>
-  <si>
-    <t>Matière2</t>
-  </si>
-  <si>
-    <t>Matière3</t>
-  </si>
-  <si>
     <t>SVT_L</t>
   </si>
   <si>
     <t>SVT_C</t>
-  </si>
-  <si>
-    <t>Matière4</t>
-  </si>
-  <si>
-    <t>Matière5</t>
-  </si>
-  <si>
-    <t>Matière6</t>
   </si>
   <si>
     <t>Version</t>
@@ -352,31 +334,13 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>HDJ1</t>
-  </si>
-  <si>
-    <t>HDJ2</t>
-  </si>
-  <si>
-    <t>HDJ3</t>
-  </si>
-  <si>
     <t>11h00</t>
   </si>
   <si>
     <t>Carmen</t>
   </si>
   <si>
-    <t>Oumou</t>
-  </si>
-  <si>
     <t>PAUSE_DEJ</t>
-  </si>
-  <si>
-    <t>Maimouna</t>
-  </si>
-  <si>
-    <t>Shana</t>
   </si>
   <si>
     <t>Maxence</t>
@@ -388,19 +352,49 @@
     <t>Ninon</t>
   </si>
   <si>
-    <t>Messan</t>
+    <t>Suzon</t>
   </si>
   <si>
-    <t>Mellissandre</t>
+    <t>Maïmouna</t>
   </si>
   <si>
-    <t>Tiago</t>
+    <t>Céline DUBOURDIEU</t>
   </si>
   <si>
-    <t>Yaelle</t>
+    <t>Matière 1</t>
   </si>
   <si>
-    <t>Suzon</t>
+    <t>Matière 2</t>
+  </si>
+  <si>
+    <t>Matière 3</t>
+  </si>
+  <si>
+    <t>Matière 4</t>
+  </si>
+  <si>
+    <t>Matière 5</t>
+  </si>
+  <si>
+    <t>Matière 6</t>
+  </si>
+  <si>
+    <t>HDJ 1</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Mégane</t>
+  </si>
+  <si>
+    <t>Nasreddine</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Claude ARDITTY</t>
   </si>
 </sst>
 </file>
@@ -736,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,6 +845,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1171,7 +1174,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
@@ -1179,10 +1182,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1202,11 +1205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04331DE5-6CED-468F-9298-889A169362F2}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" customWidth="1"/>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,167 +1252,167 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1529,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="7" width="30.5703125" customWidth="1"/>
@@ -1534,33 +1537,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1570,7 +1573,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>4</v>
@@ -1583,13 +1586,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1598,13 +1601,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1613,10 +1616,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>3</v>
@@ -1641,13 +1644,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>3</v>
@@ -1660,13 +1663,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1675,12 +1678,9 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="15"/>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>3</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>4</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>2</v>
@@ -1740,17 +1740,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>3</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1803,18 +1803,32 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1967,6 +1981,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1974,7 +1989,7 @@
           <x14:formula1>
             <xm:f>FieldAreas!$A$2:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:G36</xm:sqref>
+          <xm:sqref>B2:G9 B11:G36 D10:G10 B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1986,11 +2001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E6308A-C377-41B7-86DE-13B86820C00B}">
   <dimension ref="A1:XFD36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="32" bestFit="1" customWidth="1"/>
@@ -2009,15 +2024,17 @@
     <col min="17" max="17" width="23.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="32" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="37" width="8.140625" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="37" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C1" s="46" t="str">
         <f>Teachers!A2</f>
@@ -2087,13 +2104,13 @@
         <f>Teachers!A18</f>
         <v>Alain RENAUD</v>
       </c>
-      <c r="T1" s="45">
+      <c r="T1" s="45" t="str">
         <f>Teachers!A19</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="45">
+        <v>Céline DUBOURDIEU</v>
+      </c>
+      <c r="U1" s="45" t="str">
         <f>Teachers!A20</f>
-        <v>0</v>
+        <v>Claude ARDITTY</v>
       </c>
       <c r="V1" s="45">
         <f>Teachers!A21</f>
@@ -2162,16 +2179,16 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -2210,16 +2227,16 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -2257,16 +2274,16 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
@@ -2304,13 +2321,13 @@
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -2349,7 +2366,7 @@
     <row r="6" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="51" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -2390,7 +2407,7 @@
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -2431,7 +2448,7 @@
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -2471,19 +2488,19 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -2519,21 +2536,21 @@
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
@@ -2568,21 +2585,21 @@
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -2617,21 +2634,21 @@
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -2666,7 +2683,7 @@
     <row r="13" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="51" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -2707,7 +2724,7 @@
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -2748,7 +2765,7 @@
     <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -2788,10 +2805,10 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -2832,7 +2849,7 @@
     <row r="17" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -2873,7 +2890,7 @@
     <row r="18" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -2914,7 +2931,7 @@
     <row r="19" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -2955,7 +2972,7 @@
     <row r="20" spans="1:16384" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="51" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -19343,7 +19360,7 @@
     <row r="21" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -19384,7 +19401,7 @@
     <row r="22" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
@@ -19424,10 +19441,10 @@
     </row>
     <row r="23" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -19437,21 +19454,21 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
-      <c r="O23" s="35" t="s">
-        <v>89</v>
-      </c>
+      <c r="O23" s="35"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
       <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
+      <c r="U23" s="60" t="s">
+        <v>83</v>
+      </c>
       <c r="V23" s="34"/>
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
@@ -19472,7 +19489,7 @@
     <row r="24" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -19482,29 +19499,29 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="O24" s="31"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
+      <c r="U24" s="61" t="s">
+        <v>83</v>
+      </c>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -19525,7 +19542,7 @@
     <row r="25" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -19535,29 +19552,29 @@
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="62" t="s">
+        <v>83</v>
+      </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
@@ -19578,7 +19595,7 @@
     <row r="26" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -19587,30 +19604,28 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="31" t="s">
-        <v>89</v>
-      </c>
+      <c r="J26" s="31"/>
       <c r="K26" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="O26" s="31"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
       <c r="S26" s="31"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
+      <c r="U26" s="61" t="s">
+        <v>83</v>
+      </c>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
@@ -19631,7 +19646,7 @@
     <row r="27" spans="1:16384" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="51" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
@@ -19672,7 +19687,7 @@
     <row r="28" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -19683,16 +19698,16 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
@@ -19721,7 +19736,7 @@
     <row r="29" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41"/>
       <c r="B29" s="42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -19732,16 +19747,16 @@
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
       <c r="K29" s="43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L29" s="43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M29" s="43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N29" s="43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
@@ -19769,10 +19784,10 @@
     </row>
     <row r="30" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -19786,12 +19801,14 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
+      <c r="O30" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="P30" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
@@ -19817,7 +19834,7 @@
     <row r="31" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -19831,15 +19848,19 @@
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="P31" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
+      <c r="S31" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
@@ -19862,7 +19883,7 @@
     <row r="32" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -19876,12 +19897,14 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
+      <c r="O32" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="P32" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
@@ -19907,7 +19930,7 @@
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
@@ -19921,12 +19944,14 @@
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="P33" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
@@ -19952,7 +19977,7 @@
     <row r="34" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="51" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
@@ -19993,7 +20018,7 @@
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -20034,7 +20059,7 @@
     <row r="36" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -20083,10 +20108,10 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
@@ -20095,50 +20120,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4">
-        <v>44102</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="62" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -20147,16 +20174,20 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -20164,15 +20195,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -20181,14 +20214,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -20198,16 +20227,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="D7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
@@ -20215,13 +20248,17 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -20230,11 +20267,17 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -20243,11 +20286,17 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -20256,16 +20305,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -20273,16 +20326,20 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -20290,15 +20347,17 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -20307,11 +20366,9 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>119</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -20322,7 +20379,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>120</v>
@@ -20330,9 +20387,7 @@
       <c r="C15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -20340,12 +20395,8 @@
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>121</v>
-      </c>
+      <c r="A16" s="48"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -20355,12 +20406,8 @@
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>122</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -20371,11 +20418,11 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B19" s="50" t="str">
         <f>UPPER(TEXT(C1,"jjjj"))</f>
-        <v>LUNDI</v>
+        <v>JEUDI</v>
       </c>
       <c r="C19" s="28" t="str">
         <f>IF($B$19="VENDREDI","9h15","9h30")</f>
@@ -20394,13 +20441,13 @@
         <v>11h45</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -20410,23 +20457,27 @@
       </c>
       <c r="B20" s="2" t="str">
         <f>B3</f>
-        <v>Oumou</v>
+        <v>Ethan</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G20" s="57"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="str">
@@ -20438,20 +20489,24 @@
         <v>Suzon</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G21" s="58"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="H21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
@@ -20460,45 +20515,41 @@
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Maimouna</v>
+        <v>Maïmouna</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G22" s="57"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="B23" s="48" t="str">
+      <c r="B23" s="48">
         <f t="shared" si="0"/>
-        <v>Shana</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="58"/>
       <c r="H23" s="25"/>
       <c r="I23" s="26"/>
@@ -20513,16 +20564,16 @@
         <v>Maxence</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G24" s="57"/>
       <c r="H24" s="22"/>
@@ -20537,27 +20588,41 @@
         <f t="shared" si="0"/>
         <v>Salim</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="58"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="H25" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>G</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+        <v>Mégane</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="G26" s="57"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
@@ -20567,9 +20632,9 @@
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Nasreddine</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="25"/>
@@ -20588,21 +20653,25 @@
         <f t="shared" si="0"/>
         <v>Ninon</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
+      <c r="C28" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G28" s="57"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="str">
@@ -20614,20 +20683,24 @@
         <v>Carmen</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G29" s="58"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="H29" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
@@ -20640,22 +20713,28 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="F30" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G30" s="57"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="H30" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="B31" s="48" t="str">
+      <c r="B31" s="48">
         <f t="shared" si="0"/>
-        <v>Messan</v>
+        <v>0</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="25"/>
@@ -20667,33 +20746,33 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HDJ1</v>
+        <f>A15</f>
+        <v>HDJ 1</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Mellissandre</v>
+        <v>Jason</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="str">
+      <c r="A33" s="48">
         <f t="shared" si="0"/>
-        <v>HDJ2</v>
-      </c>
-      <c r="B33" s="48" t="str">
+        <v>0</v>
+      </c>
+      <c r="B33" s="48">
         <f t="shared" si="0"/>
-        <v>Tiago</v>
+        <v>0</v>
       </c>
       <c r="C33" s="48"/>
       <c r="D33" s="25"/>
@@ -20704,13 +20783,13 @@
       <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="str">
+      <c r="A34" s="2">
         <f t="shared" si="0"/>
-        <v>HDJ3</v>
-      </c>
-      <c r="B34" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>Yaelle</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="6"/>
